--- a/src/pyoma2/test_data/3SL/Geo1.xlsx
+++ b/src/pyoma2/test_data/3SL/Geo1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://treteknisk-my.sharepoint.com/personal/dpa_treteknisk_no/Documents/Dokumenter/Dev/pyOMA2/src/pyoma2/test_data/3SL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC439E24-2A3D-4A07-807B-4EFF4F205728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{BC439E24-2A3D-4A07-807B-4EFF4F205728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56404BB5-C937-4FBA-BB5A-197DB5AFE7AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{239D3FD3-7DB5-43CA-A3A1-49071C9EC557}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{239D3FD3-7DB5-43CA-A3A1-49071C9EC557}"/>
   </bookViews>
   <sheets>
     <sheet name="sensors names" sheetId="19" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="51">
   <si>
     <t>x</t>
   </si>
@@ -109,6 +109,105 @@
   </si>
   <si>
     <t>na</t>
+  </si>
+  <si>
+    <t>ch6_1</t>
+  </si>
+  <si>
+    <t>ch7_1</t>
+  </si>
+  <si>
+    <t>ch8_1</t>
+  </si>
+  <si>
+    <t>ch9_1</t>
+  </si>
+  <si>
+    <t>ch10_1</t>
+  </si>
+  <si>
+    <t>ch4_2</t>
+  </si>
+  <si>
+    <t>ch5_2</t>
+  </si>
+  <si>
+    <t>ch6_2</t>
+  </si>
+  <si>
+    <t>ch7_2</t>
+  </si>
+  <si>
+    <t>ch8_2</t>
+  </si>
+  <si>
+    <t>ch9_2</t>
+  </si>
+  <si>
+    <t>ch10_2</t>
+  </si>
+  <si>
+    <t>ch4_3</t>
+  </si>
+  <si>
+    <t>ch5_3</t>
+  </si>
+  <si>
+    <t>ch6_3</t>
+  </si>
+  <si>
+    <t>ch7_3</t>
+  </si>
+  <si>
+    <t>ch8_3</t>
+  </si>
+  <si>
+    <t>ch9_3</t>
+  </si>
+  <si>
+    <t>ch10_3</t>
+  </si>
+  <si>
+    <t>chann. 6</t>
+  </si>
+  <si>
+    <t>chann. 7</t>
+  </si>
+  <si>
+    <t>chann. 8</t>
+  </si>
+  <si>
+    <t>chann. 9</t>
+  </si>
+  <si>
+    <t>chann. 10</t>
+  </si>
+  <si>
+    <t>ch1_2</t>
+  </si>
+  <si>
+    <t>ch2_2</t>
+  </si>
+  <si>
+    <t>ch3_2</t>
+  </si>
+  <si>
+    <t>ch1_3</t>
+  </si>
+  <si>
+    <t>ch2_3</t>
+  </si>
+  <si>
+    <t>ch3_3</t>
+  </si>
+  <si>
+    <t>REF1</t>
+  </si>
+  <si>
+    <t>REF2</t>
+  </si>
+  <si>
+    <t>REF3</t>
   </si>
 </sst>
 </file>
@@ -187,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -227,7 +326,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -333,7 +432,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,7 +574,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -483,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B5F60D-4600-45C6-9F9B-CE573204C65F}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +594,7 @@
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -514,26 +613,177 @@
       <c r="F1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>7</v>
       </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.25">
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -543,114 +793,370 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63EEFAF-45DA-4A18-AEC3-F6C99055E21F}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>3.5</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>3.5</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>8.5</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>8.5</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3.5</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>3.5</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3.5</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3.5</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>3.5</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>3.5</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>3.5</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>3.5</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>3.5</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>3.5</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>8.5</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>8.5</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>8.5</v>
+      </c>
+      <c r="D18">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>8.5</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>3.5</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>3.5</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>3.5</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>3.5</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="C24">
+        <v>3.5</v>
+      </c>
+      <c r="D24">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
         <v>4</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
+      <c r="C25">
+        <v>3.5</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F8647A2-283F-45ED-8CDC-E05E1BE90853}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,99 +1182,358 @@
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -777,10 +1542,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B519F1-6E02-432D-A33C-937A98D77CCB}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A2:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C1" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,60 +1553,17 @@
     <col min="1" max="1" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -850,10 +1572,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4466D4-9D9C-462B-90FB-DE58C3441D80}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,91 +1599,565 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5.5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>5.5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>5.5</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>5.5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>19</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="3"/>
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>5.5</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>5.5</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>5.5</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>5.5</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>5.5</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>5.5</v>
+      </c>
+      <c r="D27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>13</v>
+      </c>
+      <c r="C28">
+        <v>5.5</v>
+      </c>
+      <c r="D28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>5.5</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>5.5</v>
+      </c>
+      <c r="D36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>5.5</v>
+      </c>
+      <c r="D37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>5.5</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>5.5</v>
+      </c>
+      <c r="D39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -970,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59F39B5-D487-4E58-BF61-A925B720FB4E}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1000,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1008,10 +2204,10 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1019,10 +2215,10 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1030,10 +2226,10 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1041,10 +2237,714 @@
         <v>17</v>
       </c>
       <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>6</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43">
+        <v>26</v>
+      </c>
+      <c r="C43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45">
+        <v>29</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48">
+        <v>33</v>
+      </c>
+      <c r="C48">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49">
+        <v>35</v>
+      </c>
+      <c r="C49">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>36</v>
+      </c>
+      <c r="C50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>37</v>
+      </c>
+      <c r="C51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53">
+        <v>11</v>
+      </c>
+      <c r="C53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55">
+        <v>13</v>
+      </c>
+      <c r="C55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58">
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59">
+        <v>21</v>
+      </c>
+      <c r="C59">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60">
+        <v>22</v>
+      </c>
+      <c r="C60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B61">
+        <v>23</v>
+      </c>
+      <c r="C61">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B62">
+        <v>27</v>
+      </c>
+      <c r="C62">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63">
+        <v>24</v>
+      </c>
+      <c r="C63">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64">
+        <v>28</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65">
+        <v>31</v>
+      </c>
+      <c r="C65">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66">
+        <v>32</v>
+      </c>
+      <c r="C66">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67">
+        <v>33</v>
+      </c>
+      <c r="C67">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B68">
+        <v>37</v>
+      </c>
+      <c r="C68">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69">
+        <v>34</v>
+      </c>
+      <c r="C69">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B70">
+        <v>38</v>
+      </c>
+      <c r="C70">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
